--- a/aplikasi/nginx/html/feeder_pt/public/kurikulum.xlsx
+++ b/aplikasi/nginx/html/feeder_pt/public/kurikulum.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Id Program Studi</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Id Jurusan</t>
   </si>
   <si>
     <t>Nama Kurikulum</t>
@@ -144,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -158,6 +155,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,56 +436,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -495,24 +488,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
         <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
